--- a/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,25; 6,64</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 6,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 7,92</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 8,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-76,05; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,4; 359,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,58; 107,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>217,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 3,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 2,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,3; 876,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,31; 76,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,55; 130,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 83,2</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,8%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 5,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,74; 64,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,52; 107,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 113,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,42; 142,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,05%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 3,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 1,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,97; 117,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; 135,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,48; 165,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,98; 45,04</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,92%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 2,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 178,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 115,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 187,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; 45,47</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 2,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 74,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 60,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 85,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 49,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>154,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>27,99%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,64</t>
+          <t>0,4; 3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,91</t>
+          <t>-2,35; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,92</t>
+          <t>-1,03; 3,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 8,0</t>
+          <t>-0,74; 5,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,05; —</t>
+          <t>7,78; 523,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,27; 75,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 359,28</t>
+          <t>-23,14; 129,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 107,58</t>
+          <t>-6,28; 67,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>217,52%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>117,97%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,33</t>
+          <t>-1,64; 1,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,69</t>
+          <t>-0,72; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,24</t>
+          <t>-1,11; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,9</t>
+          <t>2,88; 7,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 876,8</t>
+          <t>-41,74; 64,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 76,78</t>
+          <t>-15,52; 107,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 130,93</t>
+          <t>-30,46; 113,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 83,2</t>
+          <t>53,96; 331,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>-16,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,51</t>
+          <t>-1,09; 3,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,24</t>
+          <t>-0,75; 3,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,2</t>
+          <t>-0,92; 3,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,67</t>
+          <t>-3,81; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 64,17</t>
+          <t>-25,97; 117,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 107,36</t>
+          <t>-17,02; 135,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 113,01</t>
+          <t>-24,48; 165,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,42; 142,33</t>
+          <t>-63,52; 32,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,05</t>
+          <t>-0,08; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,64</t>
+          <t>-0,29; 3,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,22</t>
+          <t>-0,02; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,87</t>
+          <t>-1,63; 2,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 117,35</t>
+          <t>-4,12; 178,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 135,8</t>
+          <t>-5,13; 115,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 165,16</t>
+          <t>-1,99; 187,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 45,04</t>
+          <t>-21,06; 44,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>30,17%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,97</t>
+          <t>0,08; 1,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,86</t>
+          <t>0,18; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,43</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,57</t>
+          <t>0,17; 3,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 178,69</t>
+          <t>1,07; 74,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 115,29</t>
+          <t>3,62; 60,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 187,32</t>
+          <t>6,52; 85,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 45,47</t>
+          <t>3,81; 66,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>35,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>37,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>27,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 1,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 2,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 2,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 2,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 74,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 60,8</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 85,27</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 49,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,28</t>
+          <t>0,34; 3,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,49</t>
+          <t>-2,38; 2,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,5</t>
+          <t>-1,1; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,46</t>
+          <t>-0,7; 5,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 523,82</t>
+          <t>13,41; 555,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 75,77</t>
+          <t>-40,52; 85,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 129,64</t>
+          <t>-25,34; 124,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 67,77</t>
+          <t>-6,5; 64,69</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,51</t>
+          <t>-1,69; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,24</t>
+          <t>-0,51; 3,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,2</t>
+          <t>-1,06; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,47</t>
+          <t>2,98; 7,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 64,17</t>
+          <t>-42,19; 69,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 107,36</t>
+          <t>-13,01; 111,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 113,01</t>
+          <t>-31,64; 102,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,96; 331,28</t>
+          <t>52,78; 331,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,05</t>
+          <t>-1,37; 2,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,64</t>
+          <t>-0,86; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,22</t>
+          <t>-0,98; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,41</t>
+          <t>-3,87; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 117,35</t>
+          <t>-31,08; 107,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 135,8</t>
+          <t>-20,84; 130,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 165,16</t>
+          <t>-26,32; 158,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,52; 32,26</t>
+          <t>-61,15; 33,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,97</t>
+          <t>-0,19; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,86</t>
+          <t>-0,48; 3,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,43</t>
+          <t>0,05; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,51</t>
+          <t>-2,04; 2,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 178,69</t>
+          <t>-7,69; 168,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 115,29</t>
+          <t>-10,36; 113,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 187,32</t>
+          <t>-3,12; 190,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 44,49</t>
+          <t>-24,39; 40,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,73</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,23</t>
+          <t>0,14; 2,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,11</t>
+          <t>0,11; 2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,31</t>
+          <t>0,09; 3,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 74,04</t>
+          <t>4,84; 78,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 60,8</t>
+          <t>2,78; 64,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 85,27</t>
+          <t>2,88; 80,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 66,2</t>
+          <t>2,49; 62,71</t>
         </is>
       </c>
     </row>
